--- a/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/output/imputed-conc.xlsx
+++ b/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/output/imputed-conc.xlsx
@@ -1995,7 +1995,7 @@
         <v>24</v>
       </c>
       <c r="G20">
-        <v>1.179101028875E-06</v>
+        <v>1.25529356100473E-06</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>24</v>
       </c>
       <c r="G21">
-        <v>1.178950862833333E-06</v>
+        <v>1.254464611118925E-06</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="G22">
-        <v>1.14574942405E-06</v>
+        <v>1.219846981667835E-06</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>24</v>
       </c>
       <c r="G23">
-        <v>1.195175348033333E-06</v>
+        <v>1.2704181351003E-06</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="G24">
-        <v>1.184359024566667E-06</v>
+        <v>1.260554338597397E-06</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>24</v>
       </c>
       <c r="G25">
-        <v>1.151232941833333E-06</v>
+        <v>1.225137756354108E-06</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
